--- a/LAB 2 Sound/Sound.xlsx
+++ b/LAB 2 Sound/Sound.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\firew\Documents\imphys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\firew\Documents\GitHub\imphys\LAB 2 Sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E7122D9-9388-463B-95DA-D941A4B574CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41566D50-F632-4ABC-BFF5-1D2C23FB4FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{B9EE67D3-C5B7-4704-95A4-C263CAABE186}"/>
+    <workbookView xWindow="20415" yWindow="5415" windowWidth="13785" windowHeight="20880" xr2:uid="{B9EE67D3-C5B7-4704-95A4-C263CAABE186}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,13 +85,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,23 +101,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,176 +423,166 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.19921875" customWidth="1"/>
-    <col min="3" max="3" width="19.9296875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <f>B2/100</f>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0.11800000000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>11.8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.20367992370773827</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4.1189770347066175E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <f t="shared" ref="A3:A11" si="0">B3/100</f>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0.12</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.2056734472776829</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2.4085543677521744E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <f t="shared" si="0"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0.122</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>12.2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.946216648898877</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5.3232542185827049E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <f t="shared" si="0"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0.124</v>
       </c>
       <c r="B5" s="1">
         <v>12.4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2.5886723465579893</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>4.5553093477051998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <f t="shared" si="0"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0.126</v>
       </c>
       <c r="B6" s="1">
         <v>12.6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>3.5801938946159679</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>2.8797932657906436E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <f t="shared" si="0"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>0.128</v>
       </c>
       <c r="B7" s="1">
         <v>12.8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>4.1680207866876584</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>3.1939525311496235E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <f t="shared" si="0"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0.13</v>
       </c>
       <c r="B8" s="1">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>4.82618444761472</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1.8500490071139894E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <f t="shared" si="0"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>0.13200000000000001</v>
       </c>
       <c r="B9" s="1">
         <v>13.2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>5.7501617536205174</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1.8151424220741029E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <f t="shared" si="0"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>0.13400000000000001</v>
       </c>
       <c r="B10" s="1">
         <v>13.4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>5.7747708960736386</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>2.4965574442794E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <f t="shared" si="0"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>0.13600000000000001</v>
       </c>
       <c r="B11" s="1">
         <v>13.6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>6.846053990947758</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>6.2133721370998131E-2</v>
       </c>
     </row>
@@ -625,23 +592,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ee9002b3-532f-4754-93e2-99c14e06124b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E19ABAAD7DE764EBA35B6BF2D6D9CB6" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="52df904e5abd55714f70df73575dbe71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee9002b3-532f-4754-93e2-99c14e06124b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2120644279223859f0631640a76b3a60" ns3:_="">
     <xsd:import namespace="ee9002b3-532f-4754-93e2-99c14e06124b"/>
@@ -817,31 +767,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ee9002b3-532f-4754-93e2-99c14e06124b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD8A637-39C0-42A5-BEC4-50A676B0AD16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee9002b3-532f-4754-93e2-99c14e06124b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1BC54D-A054-4389-AD08-964AB0558455}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65E3CA9A-864F-481A-9880-09FB9B844B13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -857,4 +800,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1BC54D-A054-4389-AD08-964AB0558455}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD8A637-39C0-42A5-BEC4-50A676B0AD16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee9002b3-532f-4754-93e2-99c14e06124b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>